--- a/unsupervised-learning/charts/clustering-data.xlsx
+++ b/unsupervised-learning/charts/clustering-data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="140" yWindow="2360" windowWidth="28800" windowHeight="16760" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16760" tabRatio="500" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="K-Means" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
   <si>
     <t>Clusters</t>
   </si>
@@ -111,6 +111,9 @@
   </si>
   <si>
     <t>K-Means</t>
+  </si>
+  <si>
+    <t>Clustering Performance</t>
   </si>
 </sst>
 </file>
@@ -227,7 +230,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -400,11 +402,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-919755328"/>
-        <c:axId val="-919753552"/>
+        <c:axId val="-908124144"/>
+        <c:axId val="-908123264"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-919755328"/>
+        <c:axId val="-908124144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -454,7 +456,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -521,7 +522,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-919753552"/>
+        <c:crossAx val="-908123264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -529,7 +530,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-919753552"/>
+        <c:axId val="-908123264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -575,7 +576,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -635,7 +635,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-919755328"/>
+        <c:crossAx val="-908124144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -729,7 +729,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1031,11 +1030,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-854687408"/>
-        <c:axId val="-855054880"/>
+        <c:axId val="-860123904"/>
+        <c:axId val="-860119872"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-854687408"/>
+        <c:axId val="-860123904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1081,7 +1080,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1148,7 +1146,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-855054880"/>
+        <c:crossAx val="-860119872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1156,7 +1154,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-855054880"/>
+        <c:axId val="-860119872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1269,7 +1267,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-854687408"/>
+        <c:crossAx val="-860123904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1283,7 +1281,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1395,7 +1392,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1697,11 +1693,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-796066352"/>
-        <c:axId val="-796049728"/>
+        <c:axId val="-861363872"/>
+        <c:axId val="-861361120"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-796066352"/>
+        <c:axId val="-861363872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1744,7 +1740,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-796049728"/>
+        <c:crossAx val="-861361120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1752,7 +1748,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-796049728"/>
+        <c:axId val="-861361120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1802,7 +1798,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-796066352"/>
+        <c:crossAx val="-861363872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1866,7 +1862,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2167,11 +2162,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1013125520"/>
-        <c:axId val="-850671184"/>
+        <c:axId val="-817848896"/>
+        <c:axId val="-817846416"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1013125520"/>
+        <c:axId val="-817848896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2214,7 +2209,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-850671184"/>
+        <c:crossAx val="-817846416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2222,7 +2217,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-850671184"/>
+        <c:axId val="-817846416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2272,7 +2267,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1013125520"/>
+        <c:crossAx val="-817848896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2663,11 +2658,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-916136752"/>
-        <c:axId val="-1319702768"/>
+        <c:axId val="-817808976"/>
+        <c:axId val="-817804944"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-916136752"/>
+        <c:axId val="-817808976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2785,7 +2780,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1319702768"/>
+        <c:crossAx val="-817804944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2793,7 +2788,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1319702768"/>
+        <c:axId val="-817804944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2911,7 +2906,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-916136752"/>
+        <c:crossAx val="-817808976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3334,11 +3329,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-848440720"/>
-        <c:axId val="-848438944"/>
+        <c:axId val="-817779024"/>
+        <c:axId val="-817774992"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-848440720"/>
+        <c:axId val="-817779024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3456,7 +3451,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-848438944"/>
+        <c:crossAx val="-817774992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3464,7 +3459,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-848438944"/>
+        <c:axId val="-817774992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3582,7 +3577,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-848440720"/>
+        <c:crossAx val="-817779024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3676,7 +3671,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3857,11 +3851,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-873498912"/>
-        <c:axId val="-956710976"/>
+        <c:axId val="-817747232"/>
+        <c:axId val="-817743200"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-873498912"/>
+        <c:axId val="-817747232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3907,7 +3901,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3974,7 +3967,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-956710976"/>
+        <c:crossAx val="-817743200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3982,7 +3975,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-956710976"/>
+        <c:axId val="-817743200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4033,7 +4026,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4093,7 +4085,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-873498912"/>
+        <c:crossAx val="-817747232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4107,7 +4099,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4219,7 +4210,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4400,11 +4390,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-872492816"/>
-        <c:axId val="-880606272"/>
+        <c:axId val="-860107968"/>
+        <c:axId val="-860104576"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-872492816"/>
+        <c:axId val="-860107968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4450,7 +4440,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4517,7 +4506,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-880606272"/>
+        <c:crossAx val="-860104576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4525,7 +4514,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-880606272"/>
+        <c:axId val="-860104576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4638,7 +4627,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-872492816"/>
+        <c:crossAx val="-860107968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4652,7 +4641,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4764,7 +4752,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4945,11 +4932,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-934534560"/>
-        <c:axId val="-852133056"/>
+        <c:axId val="-860086048"/>
+        <c:axId val="-860082016"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-934534560"/>
+        <c:axId val="-860086048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4995,7 +4982,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5062,7 +5048,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-852133056"/>
+        <c:crossAx val="-860082016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5070,7 +5056,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-852133056"/>
+        <c:axId val="-860082016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5121,7 +5107,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5181,7 +5166,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-934534560"/>
+        <c:crossAx val="-860086048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5195,7 +5180,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5307,7 +5291,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5477,11 +5460,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-935432704"/>
-        <c:axId val="-917830304"/>
+        <c:axId val="-909791168"/>
+        <c:axId val="-817875120"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-935432704"/>
+        <c:axId val="-909791168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5532,7 +5515,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5599,7 +5581,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-917830304"/>
+        <c:crossAx val="-817875120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5607,7 +5589,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-917830304"/>
+        <c:axId val="-817875120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5720,7 +5702,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-935432704"/>
+        <c:crossAx val="-909791168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5813,7 +5795,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6099,11 +6080,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-880519584"/>
-        <c:axId val="-917712848"/>
+        <c:axId val="-861382736"/>
+        <c:axId val="-861378704"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-880519584"/>
+        <c:axId val="-861382736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6149,7 +6130,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6216,7 +6196,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-917712848"/>
+        <c:crossAx val="-861378704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6224,7 +6204,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-917712848"/>
+        <c:axId val="-861378704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6270,7 +6250,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6330,7 +6309,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-880519584"/>
+        <c:crossAx val="-861382736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6344,7 +6323,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6456,7 +6434,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6629,11 +6606,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-873161840"/>
-        <c:axId val="-880013776"/>
+        <c:axId val="-860239440"/>
+        <c:axId val="-860235408"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-873161840"/>
+        <c:axId val="-860239440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6679,7 +6656,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6746,7 +6722,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-880013776"/>
+        <c:crossAx val="-860235408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6754,7 +6730,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-880013776"/>
+        <c:axId val="-860235408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6867,7 +6843,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-873161840"/>
+        <c:crossAx val="-860239440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6956,7 +6932,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7257,11 +7232,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-921489584"/>
-        <c:axId val="-919302208"/>
+        <c:axId val="-909540992"/>
+        <c:axId val="-909537232"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-921489584"/>
+        <c:axId val="-909540992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7307,7 +7282,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -7374,7 +7348,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-919302208"/>
+        <c:crossAx val="-909537232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7382,7 +7356,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-919302208"/>
+        <c:axId val="-909537232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7428,7 +7402,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -7488,7 +7461,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-921489584"/>
+        <c:crossAx val="-909540992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7502,7 +7475,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7609,7 +7581,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7779,11 +7750,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-935252208"/>
-        <c:axId val="-879343248"/>
+        <c:axId val="-860218768"/>
+        <c:axId val="-860215008"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-935252208"/>
+        <c:axId val="-860218768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7829,7 +7800,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -7896,7 +7866,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-879343248"/>
+        <c:crossAx val="-860215008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7904,7 +7874,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-879343248"/>
+        <c:axId val="-860215008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7950,7 +7920,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -8010,7 +7979,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-935252208"/>
+        <c:crossAx val="-860218768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8104,7 +8073,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8274,11 +8242,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-877262784"/>
-        <c:axId val="-915149552"/>
+        <c:axId val="-909515744"/>
+        <c:axId val="-909511712"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-877262784"/>
+        <c:axId val="-909515744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8324,7 +8292,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -8391,7 +8358,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-915149552"/>
+        <c:crossAx val="-909511712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8399,7 +8366,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-915149552"/>
+        <c:axId val="-909511712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8445,7 +8412,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -8505,7 +8471,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-877262784"/>
+        <c:crossAx val="-909515744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8887,11 +8853,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-915041632"/>
-        <c:axId val="-916717232"/>
+        <c:axId val="-860199648"/>
+        <c:axId val="-860195616"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-915041632"/>
+        <c:axId val="-860199648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8937,7 +8903,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -9004,7 +8969,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-916717232"/>
+        <c:crossAx val="-860195616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9012,7 +8977,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-916717232"/>
+        <c:axId val="-860195616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9063,7 +9028,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -9123,7 +9087,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-915041632"/>
+        <c:crossAx val="-860199648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9137,7 +9101,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9244,7 +9207,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9546,11 +9508,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-872803360"/>
-        <c:axId val="-872816432"/>
+        <c:axId val="-860153856"/>
+        <c:axId val="-860149824"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-872803360"/>
+        <c:axId val="-860153856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9596,7 +9558,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -9663,7 +9624,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-872816432"/>
+        <c:crossAx val="-860149824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9671,7 +9632,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-872816432"/>
+        <c:axId val="-860149824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9784,7 +9745,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-872803360"/>
+        <c:crossAx val="-860153856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9798,7 +9759,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -21444,7 +21404,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
@@ -21975,10 +21935,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="20.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/unsupervised-learning/charts/clustering-data.xlsx
+++ b/unsupervised-learning/charts/clustering-data.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27510"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10309"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rohanrk/Desktop/College_Documents/Georgia Tech/Courses/Spring 2019/CS 4641/Machine-Learning-4641/unsupervised-learning/charts/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rohanrk/Library/Containers/com.microsoft.Excel/Data/Desktop/College_Documents/Georgia Tech/Courses/Spring 2019/CS 4641/Machine-Learning-4641/unsupervised-learning/charts/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8CB8181-0CCD-8547-87AA-9BEFD6342DFE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16760" tabRatio="500" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16740" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="K-Means" sheetId="1" r:id="rId1"/>
@@ -20,7 +21,11 @@
     <sheet name="InfoGain" sheetId="6" r:id="rId6"/>
     <sheet name="Neural Network" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <definedNames>
+    <definedName name="kurtosis" localSheetId="3">ICA!$N$2:$N$40</definedName>
+    <definedName name="kurtosis_1" localSheetId="3">ICA!$P$2:$P$64</definedName>
+  </definedNames>
+  <calcPr calcId="150000"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -32,8 +37,27 @@
 </workbook>
 </file>
 
+<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{F2BF7A5F-3E63-6240-866C-D66F39C9DDDD}" name="kurtosis" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="10000" sourceFile="/Users/rohanrk/Desktop/College_Documents/Georgia Tech/Courses/Spring 2019/CS 4641/Machine-Learning-4641/unsupervised-learning/kurtosis.csv">
+      <textFields>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="2" xr16:uid="{75304626-B6DF-664C-9E50-691531858398}" name="kurtosis1" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="10000" sourceFile="/Users/rohanrk/Desktop/College_Documents/Georgia Tech/Courses/Spring 2019/CS 4641/Machine-Learning-4641/unsupervised-learning/kurtosis.csv">
+      <textFields>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+</connections>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="30">
   <si>
     <t>Clusters</t>
   </si>
@@ -115,11 +139,20 @@
   <si>
     <t>Clustering Performance</t>
   </si>
+  <si>
+    <t>Attribute</t>
+  </si>
+  <si>
+    <t>Breast Cancer</t>
+  </si>
+  <si>
+    <t>Optdigits</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -181,12 +214,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -290,49 +326,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11.0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13.0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15.0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -365,7 +401,7 @@
                   <c:v>18736.04</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>17197.9</c:v>
+                  <c:v>17197.900000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>16457.47</c:v>
@@ -392,6 +428,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-405C-3246-89FB-060330ED3042}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -605,6 +646,7 @@
             </a:p>
           </c:txPr>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -685,7 +727,7 @@
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -789,49 +831,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11.0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13.0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15.0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -852,7 +894,7 @@
                   <c:v>5277.67</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4674.19</c:v>
+                  <c:v>4674.1899999999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>4054.84</c:v>
@@ -864,7 +906,7 @@
                   <c:v>2852.84</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2263.68</c:v>
+                  <c:v>2263.6799999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>1699.8</c:v>
@@ -873,7 +915,7 @@
                   <c:v>1687.93</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1105.85</c:v>
+                  <c:v>1105.8499999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>1091.56</c:v>
@@ -885,12 +927,17 @@
                   <c:v>1052.26</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1032.84</c:v>
+                  <c:v>1032.8399999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6033-D44D-A19A-A647340A7428}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -918,49 +965,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11.0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13.0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15.0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -993,7 +1040,7 @@
                   <c:v>18736.04</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>17197.9</c:v>
+                  <c:v>17197.900000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>16457.47</c:v>
@@ -1020,6 +1067,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6033-D44D-A19A-A647340A7428}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1204,8 +1256,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.0545073375262054"/>
-              <c:y val="0.125833333333333"/>
+              <c:x val="5.4507337526205402E-2"/>
+              <c:y val="0.12583333333333299"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -1237,6 +1289,7 @@
             </a:p>
           </c:txPr>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1348,7 +1401,7 @@
 </file>
 
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1452,49 +1505,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11.0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13.0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15.0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1554,6 +1607,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2DC0-BC47-891E-CC3F15732BB4}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1581,49 +1639,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11.0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13.0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15.0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1641,7 +1699,7 @@
                   <c:v>-100.15</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-97.57474000000001</c:v>
+                  <c:v>-97.574740000000006</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>-91.83</c:v>
@@ -1659,7 +1717,7 @@
                   <c:v>-79.27</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-80.01</c:v>
+                  <c:v>-80.010000000000005</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>-76.94</c:v>
@@ -1668,7 +1726,7 @@
                   <c:v>-74.98</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-70.26</c:v>
+                  <c:v>-70.260000000000005</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>-72.98</c:v>
@@ -1677,12 +1735,17 @@
                   <c:v>-72.98</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-72.32</c:v>
+                  <c:v>-72.319999999999993</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2DC0-BC47-891E-CC3F15732BB4}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1768,6 +1831,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1848,7 +1912,7 @@
 </file>
 
 <file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1922,49 +1986,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11.0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13.0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15.0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1988,22 +2052,22 @@
                   <c:v>-38.43</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-38.12</c:v>
+                  <c:v>-38.119999999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>-37.44</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-37.34</c:v>
+                  <c:v>-37.340000000000003</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-35.48</c:v>
+                  <c:v>-35.479999999999997</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>-35.47</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-34.7</c:v>
+                  <c:v>-34.700000000000003</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>-34.32</c:v>
@@ -2012,7 +2076,7 @@
                   <c:v>-35.17</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-35.38</c:v>
+                  <c:v>-35.380000000000003</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>-32.6</c:v>
@@ -2024,6 +2088,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FA25-094F-A7A7-C1ED0A89661C}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -2050,49 +2119,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11.0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13.0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15.0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2104,16 +2173,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>-10.04</c:v>
+                  <c:v>-10.039999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>-9.68</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-9.37</c:v>
+                  <c:v>-9.3699999999999992</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-9.28</c:v>
+                  <c:v>-9.2799999999999994</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>-9.42</c:v>
@@ -2134,10 +2203,10 @@
                   <c:v>-9.27</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-9.28</c:v>
+                  <c:v>-9.2799999999999994</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-9.28</c:v>
+                  <c:v>-9.2799999999999994</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>-9.27</c:v>
@@ -2152,6 +2221,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FA25-094F-A7A7-C1ED0A89661C}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2237,6 +2311,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2317,7 +2392,7 @@
 </file>
 
 <file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2356,7 +2431,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2417,49 +2491,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11.0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13.0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15.0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2480,7 +2554,7 @@
                   <c:v>5195.79</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4641.89</c:v>
+                  <c:v>4641.8900000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>4063.96</c:v>
@@ -2492,13 +2566,13 @@
                   <c:v>2902.81</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2331.72</c:v>
+                  <c:v>2331.7199999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>2322.64</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2311.82</c:v>
+                  <c:v>2311.8200000000002</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>1729.01</c:v>
@@ -2519,6 +2593,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BCBF-C140-97AF-AFD5246F1244}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -2546,49 +2625,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11.0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13.0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15.0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2621,7 +2700,7 @@
                   <c:v>18736.04</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>17197.9</c:v>
+                  <c:v>17197.900000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>16457.47</c:v>
@@ -2648,6 +2727,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BCBF-C140-97AF-AFD5246F1244}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2713,7 +2797,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2843,8 +2926,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.053388090349076"/>
-              <c:y val="0.046712962962963"/>
+              <c:x val="5.3388090349076003E-2"/>
+              <c:y val="4.6712962962962998E-2"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -2876,6 +2959,7 @@
             </a:p>
           </c:txPr>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2920,7 +3004,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2988,7 +3071,7 @@
 </file>
 
 <file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3027,7 +3110,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3088,49 +3170,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11.0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13.0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15.0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3190,6 +3272,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7828-5C47-B6E1-B9CA863A1CFA}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -3217,49 +3304,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11.0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13.0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15.0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3271,54 +3358,59 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>1299.0</c:v>
+                  <c:v>1299</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1177.0</c:v>
+                  <c:v>1177</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>977.0</c:v>
+                  <c:v>977</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>932.0</c:v>
+                  <c:v>932</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>888.0</c:v>
+                  <c:v>888</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>847.0</c:v>
+                  <c:v>847</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>826.0</c:v>
+                  <c:v>826</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>798.0</c:v>
+                  <c:v>798</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>800.0</c:v>
+                  <c:v>800</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>766.0</c:v>
+                  <c:v>766</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>758.0</c:v>
+                  <c:v>758</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>738.0</c:v>
+                  <c:v>738</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>725.0</c:v>
+                  <c:v>725</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>719.0</c:v>
+                  <c:v>719</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>710.0</c:v>
+                  <c:v>710</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7828-5C47-B6E1-B9CA863A1CFA}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3384,7 +3476,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3514,8 +3605,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.0513918629550321"/>
-              <c:y val="0.0791203703703704"/>
+              <c:x val="5.1391862955032099E-2"/>
+              <c:y val="7.9120370370370396E-2"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -3547,6 +3638,7 @@
             </a:p>
           </c:txPr>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3627,7 +3719,1401 @@
 </file>
 
 <file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Breast Cancer Kurtoses</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>ICA!$L$2:$L$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ICA!$N$2:$N$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>4.4020386481741101</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.1171694092960398</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.22369201784851</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.4968586545500999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.22778403309061</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.7577951103100302</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.7005937188358704</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.63620344113466</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.2496516387177001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.4678078180845899</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.0481879594598</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.7104336299905603</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.8284718995079494</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.2943968785056099</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.7987504632082101</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>13.6646010364116</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.8950182577153201</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.5986675503408798</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.6197803778645801</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.0973324634681791</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.9953200792337098</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>12.2009264646428</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.2409375231508002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>11.224881135728101</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>36.262249338766097</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.52624710673394</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6.9669485227774599</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.4105729136409901</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.65700702533782</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.4028955922464101</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4.13416682925837</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.2913189042889601</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4.2313037120415604</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4.7622837058600904</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4.6949651950719904</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.99394342315441</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>20.248070107986798</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.0990960301886399</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FE00-3344-85D0-53E417CAB43B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:axId val="1839925200"/>
+        <c:axId val="1839926880"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1839925200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Attribute</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1839926880"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1839926880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Kurtosis</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1839925200"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Optdigits</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Kurtoses</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>ICA!$L$2:$L$63</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="62"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>62</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ICA!$P$2:$P$63</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="62"/>
+                <c:pt idx="0">
+                  <c:v>11.9824986404257</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.6169948742122999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.482559852127199</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18.783333861923801</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.8388301516349799</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15.756620263654501</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.5987467170930403</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.3555645553277103</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15.592767086574099</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15.047012458431301</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.6496485457068801</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.8957218522244199</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.4367447776688298</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9.2844854437777506</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.3046154524195197</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.1596134941408396</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9.0685351214268497</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7.91838696275454</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>13.9177534275022</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.4270565606202803</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>23.2027967127399</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>27.3092749849447</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>10.275375801359701</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>14.4624951455813</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9.82245806681963</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>13.4968189765234</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>9.3591269017099794</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5.0873170523533497</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>6.74183009950701</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6.7318214716090399</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7.8654008747291702</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>6.7231687898990202</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>8.1302826372744992</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>7.9733267420017704</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4.8927783416173796</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>11.7113506468589</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5.45164808313924</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>17.362200144926199</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>27.025540261342499</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>7.0311660925279398</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>10.738327985583</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>15.154139446862301</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>20.846061985248902</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>6.5599269226989003</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>8.56879885519594</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>33.052671578930401</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>15.705308835120899</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>16.7104487919846</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>8.3298490492947508</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>11.0348613625361</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>6.8966787768636504</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>19.502915396033899</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>14.1650070669178</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>33.1687980576773</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>15.331775550123901</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5.9573294309942897</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>7.0116038167561099</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>7.8893476973051797</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5.6568206824978899</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>9.6623323950314202</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>14.971060057251901</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>10.5294117468283</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EAB6-8A45-B22F-5B490C1D6FF6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1842611024"/>
+        <c:axId val="1842584304"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1842611024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Attribute</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1842584304"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1842584304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Kurtosis</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1842611024"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3731,19 +5217,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20.0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30.0</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3773,6 +5259,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-ABB0-AA47-B28B-B713AF194428}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -3799,19 +5290,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20.0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30.0</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3841,6 +5332,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-ABB0-AA47-B28B-B713AF194428}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -4055,6 +5551,7 @@
             </a:p>
           </c:txPr>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4165,8 +5662,8 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4270,19 +5767,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4312,6 +5809,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AF00-AA47-A35B-075ED2EE1FB6}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -4338,19 +5840,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4380,6 +5882,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-AF00-AA47-A35B-075ED2EE1FB6}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -4564,7 +6071,7 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.0566448801742919"/>
+              <c:x val="5.6644880174291902E-2"/>
               <c:y val="0.218425925925926"/>
             </c:manualLayout>
           </c:layout>
@@ -4597,6 +6104,7 @@
             </a:p>
           </c:txPr>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4707,8 +6215,8 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4812,19 +6320,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15.0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20.0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>25.0</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4839,7 +6347,7 @@
                   <c:v>45.16</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>39.59</c:v>
+                  <c:v>39.590000000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>25.3</c:v>
@@ -4854,6 +6362,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-65DB-2C4D-A2E6-5B1D198C4CCA}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -4880,19 +6393,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15.0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20.0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>25.0</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4916,12 +6429,17 @@
                   <c:v>18.86</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16.33</c:v>
+                  <c:v>16.329999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-65DB-2C4D-A2E6-5B1D198C4CCA}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -5136,6 +6654,7 @@
             </a:p>
           </c:txPr>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -5247,7 +6766,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -5348,49 +6867,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11.0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13.0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15.0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5402,54 +6921,59 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>1299.0</c:v>
+                  <c:v>1299</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1177.0</c:v>
+                  <c:v>1177</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>977.0</c:v>
+                  <c:v>977</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>932.0</c:v>
+                  <c:v>932</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>888.0</c:v>
+                  <c:v>888</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>847.0</c:v>
+                  <c:v>847</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>826.0</c:v>
+                  <c:v>826</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>798.0</c:v>
+                  <c:v>798</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>800.0</c:v>
+                  <c:v>800</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>766.0</c:v>
+                  <c:v>766</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>758.0</c:v>
+                  <c:v>758</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>738.0</c:v>
+                  <c:v>738</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>725.0</c:v>
+                  <c:v>725</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>719.0</c:v>
+                  <c:v>719</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>710.0</c:v>
+                  <c:v>710</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CBC4-3E44-815D-E6FF3A351193}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -5639,8 +7163,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.0515873015873016"/>
-              <c:y val="0.181388888888889"/>
+              <c:x val="5.1587301587301598E-2"/>
+              <c:y val="0.18138888888888899"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -5672,6 +7196,7 @@
             </a:p>
           </c:txPr>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -5752,7 +7277,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -5855,49 +7380,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11.0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13.0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15.0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5930,18 +7455,23 @@
                   <c:v>68.53</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>71.32</c:v>
+                  <c:v>71.319999999999993</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>71.68000000000001</c:v>
+                  <c:v>71.680000000000007</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>73.07</c:v>
+                  <c:v>73.069999999999993</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CCEF-A244-BCED-E4E24A64F7D3}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -5968,49 +7498,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11.0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13.0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15.0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6025,7 +7555,7 @@
                   <c:v>89.82</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>79.93</c:v>
+                  <c:v>79.930000000000007</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>70.61</c:v>
@@ -6070,6 +7600,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-CCEF-A244-BCED-E4E24A64F7D3}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -6279,6 +7814,7 @@
             </a:p>
           </c:txPr>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -6390,7 +7926,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -6494,49 +8030,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11.0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13.0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15.0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6548,7 +8084,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>71314.26</c:v>
+                  <c:v>71314.259999999995</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>64884.44</c:v>
@@ -6587,7 +8123,7 @@
                   <c:v>41964.13</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>40866.63</c:v>
+                  <c:v>40866.629999999997</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>40311.14</c:v>
@@ -6596,6 +8132,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-69B9-A945-ADE2-2B858E51AF31}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -6780,8 +8321,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.0333333333333333"/>
-              <c:y val="0.0606018518518519"/>
+              <c:x val="3.3333333333333298E-2"/>
+              <c:y val="6.06018518518519E-2"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -6813,6 +8354,7 @@
             </a:p>
           </c:txPr>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -6893,7 +8435,7 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -6992,49 +8534,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11.0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13.0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15.0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7049,7 +8591,7 @@
                   <c:v>89.82</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>79.93</c:v>
+                  <c:v>79.930000000000007</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>70.61</c:v>
@@ -7094,6 +8636,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-57A0-5B40-96A3-9411E6FE673D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -7120,49 +8667,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11.0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13.0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15.0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7177,7 +8724,7 @@
                   <c:v>89.82</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>80.0</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>70.61</c:v>
@@ -7216,12 +8763,17 @@
                   <c:v>29.15</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>32.27</c:v>
+                  <c:v>32.270000000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-57A0-5B40-96A3-9411E6FE673D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -7431,6 +8983,7 @@
             </a:p>
           </c:txPr>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -7542,7 +9095,7 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -7638,49 +9191,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11.0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13.0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15.0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7692,16 +9245,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>-10.04</c:v>
+                  <c:v>-10.039999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>-9.68</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-9.37</c:v>
+                  <c:v>-9.3699999999999992</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-9.28</c:v>
+                  <c:v>-9.2799999999999994</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>-9.42</c:v>
@@ -7722,10 +9275,10 @@
                   <c:v>-9.27</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-9.28</c:v>
+                  <c:v>-9.2799999999999994</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-9.28</c:v>
+                  <c:v>-9.2799999999999994</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>-9.27</c:v>
@@ -7740,6 +9293,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B480-1544-8A1E-4173D599FE89}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -7949,6 +9507,7 @@
             </a:p>
           </c:txPr>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -8029,7 +9588,7 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -8130,49 +9689,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11.0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13.0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15.0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8208,7 +9767,7 @@
                   <c:v>-79.27</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-80.01</c:v>
+                  <c:v>-80.010000000000005</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>-76.94</c:v>
@@ -8217,7 +9776,7 @@
                   <c:v>-74.98</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-70.26</c:v>
+                  <c:v>-70.260000000000005</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>-72.98</c:v>
@@ -8226,12 +9785,17 @@
                   <c:v>-72.98</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-72.32</c:v>
+                  <c:v>-72.319999999999993</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2599-8042-87E0-B495E1DEDDFE}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -8441,6 +10005,7 @@
             </a:p>
           </c:txPr>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -8521,7 +10086,7 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -8564,8 +10129,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.367826334208224"/>
-          <c:y val="0.0601851851851852"/>
+          <c:x val="0.36782633420822403"/>
+          <c:y val="6.0185185185185203E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -8628,49 +10193,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11.0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13.0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15.0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8715,6 +10280,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F9BC-5648-A882-A810801CDB9E}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -8741,49 +10311,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11.0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13.0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15.0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8813,7 +10383,7 @@
                   <c:v>44.8</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>39.73</c:v>
+                  <c:v>39.729999999999997</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>36.58</c:v>
@@ -8837,12 +10407,17 @@
                   <c:v>30.02</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>35.48</c:v>
+                  <c:v>35.479999999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F9BC-5648-A882-A810801CDB9E}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -9057,6 +10632,7 @@
             </a:p>
           </c:txPr>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -9168,7 +10744,7 @@
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -9267,49 +10843,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11.0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13.0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15.0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9324,16 +10900,16 @@
                   <c:v>950.14</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>859.5599999999999</c:v>
+                  <c:v>859.56</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>831.9299999999999</c:v>
+                  <c:v>831.93</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>819.13</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>807.8099999999999</c:v>
+                  <c:v>807.81</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>797.73</c:v>
@@ -9351,7 +10927,7 @@
                   <c:v>747.25</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>735.8099999999999</c:v>
+                  <c:v>735.81</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>727.99</c:v>
@@ -9369,6 +10945,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C3BE-0D46-B69C-E1A8ADB4303A}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -9396,49 +10977,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11.0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13.0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15.0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9450,54 +11031,59 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>1299.0</c:v>
+                  <c:v>1299</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1177.0</c:v>
+                  <c:v>1177</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>977.0</c:v>
+                  <c:v>977</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>932.0</c:v>
+                  <c:v>932</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>888.0</c:v>
+                  <c:v>888</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>847.0</c:v>
+                  <c:v>847</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>826.0</c:v>
+                  <c:v>826</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>798.0</c:v>
+                  <c:v>798</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>800.0</c:v>
+                  <c:v>800</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>766.0</c:v>
+                  <c:v>766</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>758.0</c:v>
+                  <c:v>758</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>738.0</c:v>
+                  <c:v>738</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>725.0</c:v>
+                  <c:v>725</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>719.0</c:v>
+                  <c:v>719</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>710.0</c:v>
+                  <c:v>710</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C3BE-0D46-B69C-E1A8ADB4303A}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -9682,8 +11268,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.0541531283845705"/>
-              <c:y val="0.106898148148148"/>
+              <c:x val="5.4153128384570502E-2"/>
+              <c:y val="0.10689814814814801"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -9715,6 +11301,7 @@
             </a:p>
           </c:txPr>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -10185,6 +11772,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors18.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors19.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -13602,7 +15269,7 @@
 </file>
 
 <file path=xl/charts/style15.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -13710,11 +15377,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -13725,11 +15387,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -13761,9 +15418,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -14118,7 +15772,7 @@
 </file>
 
 <file path=xl/charts/style16.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -14226,11 +15880,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -14241,11 +15890,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -14277,9 +15921,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -14634,6 +16275,1038 @@
 </file>
 
 <file path=xl/charts/style17.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style18.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style19.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -19294,7 +21967,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -19324,7 +22003,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -19354,7 +22039,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -19384,7 +22075,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -19414,7 +22111,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -19449,7 +22152,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -19479,7 +22188,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -19509,7 +22224,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -19544,7 +22265,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -19574,7 +22301,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -19604,7 +22337,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -19634,7 +22373,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -19669,7 +22414,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -19699,7 +22450,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -19709,6 +22466,78 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>146049</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>286773</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D01AEE66-1AA9-E64F-B4E2-9A4BCD1ECF97}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>312379</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>2458</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>92176</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>104058</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D866C2AE-81F2-2144-B63B-5C6D7E62E7E8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -19734,7 +22563,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -19769,7 +22604,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -19799,7 +22640,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -19815,6 +22662,14 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="kurtosis_1" connectionId="2" xr16:uid="{26B3B48D-B187-EE4A-91B3-91766779EDF3}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="kurtosis" connectionId="1" xr16:uid="{DF4F16F3-D553-D445-8982-89B779BA382E}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -20079,7 +22934,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
@@ -20632,7 +23487,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
@@ -20912,7 +23767,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -21401,11 +24256,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:P64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" topLeftCell="K8" zoomScale="124" workbookViewId="0">
+      <selection activeCell="W20" sqref="W20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -21414,9 +24269,11 @@
     <col min="4" max="4" width="20.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -21432,8 +24289,17 @@
       <c r="H1" t="s">
         <v>25</v>
       </c>
+      <c r="L1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P1" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -21449,8 +24315,17 @@
       <c r="H2">
         <v>1299</v>
       </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>4.4020386481741101</v>
+      </c>
+      <c r="P2">
+        <v>11.9824986404257</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -21466,8 +24341,17 @@
       <c r="H3">
         <v>1177</v>
       </c>
+      <c r="L3">
+        <v>2</v>
+      </c>
+      <c r="N3">
+        <v>3.1171694092960398</v>
+      </c>
+      <c r="P3">
+        <v>7.6169948742122999</v>
+      </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -21483,8 +24367,17 @@
       <c r="H4">
         <v>977</v>
       </c>
+      <c r="L4">
+        <v>3</v>
+      </c>
+      <c r="N4">
+        <v>4.22369201784851</v>
+      </c>
+      <c r="P4">
+        <v>15.482559852127199</v>
+      </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -21500,8 +24393,17 @@
       <c r="H5">
         <v>932</v>
       </c>
+      <c r="L5">
+        <v>4</v>
+      </c>
+      <c r="N5">
+        <v>3.4968586545500999</v>
+      </c>
+      <c r="P5">
+        <v>18.783333861923801</v>
+      </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -21517,8 +24419,17 @@
       <c r="H6">
         <v>888</v>
       </c>
+      <c r="L6">
+        <v>5</v>
+      </c>
+      <c r="N6">
+        <v>3.22778403309061</v>
+      </c>
+      <c r="P6">
+        <v>5.8388301516349799</v>
+      </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -21534,8 +24445,17 @@
       <c r="H7">
         <v>847</v>
       </c>
+      <c r="L7">
+        <v>6</v>
+      </c>
+      <c r="N7">
+        <v>2.7577951103100302</v>
+      </c>
+      <c r="P7">
+        <v>15.756620263654501</v>
+      </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -21551,8 +24471,17 @@
       <c r="H8">
         <v>826</v>
       </c>
+      <c r="L8">
+        <v>7</v>
+      </c>
+      <c r="N8">
+        <v>5.7005937188358704</v>
+      </c>
+      <c r="P8">
+        <v>6.5987467170930403</v>
+      </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -21568,8 +24497,17 @@
       <c r="H9">
         <v>798</v>
       </c>
+      <c r="L9">
+        <v>8</v>
+      </c>
+      <c r="N9">
+        <v>3.63620344113466</v>
+      </c>
+      <c r="P9">
+        <v>6.3555645553277103</v>
+      </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -21585,8 +24523,17 @@
       <c r="H10">
         <v>800</v>
       </c>
+      <c r="L10">
+        <v>9</v>
+      </c>
+      <c r="N10">
+        <v>3.2496516387177001</v>
+      </c>
+      <c r="P10">
+        <v>15.592767086574099</v>
+      </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -21602,8 +24549,17 @@
       <c r="H11">
         <v>766</v>
       </c>
+      <c r="L11">
+        <v>10</v>
+      </c>
+      <c r="N11">
+        <v>3.4678078180845899</v>
+      </c>
+      <c r="P11">
+        <v>15.047012458431301</v>
+      </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -21619,8 +24575,17 @@
       <c r="H12">
         <v>758</v>
       </c>
+      <c r="L12">
+        <v>11</v>
+      </c>
+      <c r="N12">
+        <v>4.0481879594598</v>
+      </c>
+      <c r="P12">
+        <v>3.6496485457068801</v>
+      </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -21636,8 +24601,17 @@
       <c r="H13">
         <v>738</v>
       </c>
+      <c r="L13">
+        <v>12</v>
+      </c>
+      <c r="N13">
+        <v>6.7104336299905603</v>
+      </c>
+      <c r="P13">
+        <v>3.8957218522244199</v>
+      </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -21653,8 +24627,17 @@
       <c r="H14">
         <v>725</v>
       </c>
+      <c r="L14">
+        <v>13</v>
+      </c>
+      <c r="N14">
+        <v>9.8284718995079494</v>
+      </c>
+      <c r="P14">
+        <v>7.4367447776688298</v>
+      </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -21670,8 +24653,17 @@
       <c r="H15">
         <v>719</v>
       </c>
+      <c r="L15">
+        <v>14</v>
+      </c>
+      <c r="N15">
+        <v>3.2943968785056099</v>
+      </c>
+      <c r="P15">
+        <v>9.2844854437777506</v>
+      </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -21686,6 +24678,468 @@
       </c>
       <c r="H16">
         <v>710</v>
+      </c>
+      <c r="L16">
+        <v>15</v>
+      </c>
+      <c r="N16">
+        <v>3.7987504632082101</v>
+      </c>
+      <c r="P16">
+        <v>5.3046154524195197</v>
+      </c>
+    </row>
+    <row r="17" spans="12:16" x14ac:dyDescent="0.2">
+      <c r="L17">
+        <v>16</v>
+      </c>
+      <c r="N17">
+        <v>13.6646010364116</v>
+      </c>
+      <c r="P17">
+        <v>7.1596134941408396</v>
+      </c>
+    </row>
+    <row r="18" spans="12:16" x14ac:dyDescent="0.2">
+      <c r="L18">
+        <v>17</v>
+      </c>
+      <c r="N18">
+        <v>2.8950182577153201</v>
+      </c>
+      <c r="P18">
+        <v>9.0685351214268497</v>
+      </c>
+    </row>
+    <row r="19" spans="12:16" x14ac:dyDescent="0.2">
+      <c r="L19">
+        <v>18</v>
+      </c>
+      <c r="N19">
+        <v>3.5986675503408798</v>
+      </c>
+      <c r="P19">
+        <v>7.91838696275454</v>
+      </c>
+    </row>
+    <row r="20" spans="12:16" x14ac:dyDescent="0.2">
+      <c r="L20">
+        <v>19</v>
+      </c>
+      <c r="N20">
+        <v>4.6197803778645801</v>
+      </c>
+      <c r="P20">
+        <v>13.9177534275022</v>
+      </c>
+    </row>
+    <row r="21" spans="12:16" x14ac:dyDescent="0.2">
+      <c r="L21">
+        <v>20</v>
+      </c>
+      <c r="N21">
+        <v>9.0973324634681791</v>
+      </c>
+      <c r="P21">
+        <v>5.4270565606202803</v>
+      </c>
+    </row>
+    <row r="22" spans="12:16" x14ac:dyDescent="0.2">
+      <c r="L22">
+        <v>21</v>
+      </c>
+      <c r="N22">
+        <v>3.9953200792337098</v>
+      </c>
+      <c r="P22">
+        <v>23.2027967127399</v>
+      </c>
+    </row>
+    <row r="23" spans="12:16" x14ac:dyDescent="0.2">
+      <c r="L23">
+        <v>22</v>
+      </c>
+      <c r="N23">
+        <v>12.2009264646428</v>
+      </c>
+      <c r="P23">
+        <v>27.3092749849447</v>
+      </c>
+    </row>
+    <row r="24" spans="12:16" x14ac:dyDescent="0.2">
+      <c r="L24">
+        <v>23</v>
+      </c>
+      <c r="N24">
+        <v>3.2409375231508002</v>
+      </c>
+      <c r="P24">
+        <v>10.275375801359701</v>
+      </c>
+    </row>
+    <row r="25" spans="12:16" x14ac:dyDescent="0.2">
+      <c r="L25">
+        <v>24</v>
+      </c>
+      <c r="N25">
+        <v>11.224881135728101</v>
+      </c>
+      <c r="P25">
+        <v>14.4624951455813</v>
+      </c>
+    </row>
+    <row r="26" spans="12:16" x14ac:dyDescent="0.2">
+      <c r="L26">
+        <v>25</v>
+      </c>
+      <c r="N26">
+        <v>36.262249338766097</v>
+      </c>
+      <c r="P26">
+        <v>9.82245806681963</v>
+      </c>
+    </row>
+    <row r="27" spans="12:16" x14ac:dyDescent="0.2">
+      <c r="L27">
+        <v>26</v>
+      </c>
+      <c r="N27">
+        <v>3.52624710673394</v>
+      </c>
+      <c r="P27">
+        <v>13.4968189765234</v>
+      </c>
+    </row>
+    <row r="28" spans="12:16" x14ac:dyDescent="0.2">
+      <c r="L28">
+        <v>27</v>
+      </c>
+      <c r="N28">
+        <v>6.9669485227774599</v>
+      </c>
+      <c r="P28">
+        <v>9.3591269017099794</v>
+      </c>
+    </row>
+    <row r="29" spans="12:16" x14ac:dyDescent="0.2">
+      <c r="L29">
+        <v>28</v>
+      </c>
+      <c r="N29">
+        <v>3.4105729136409901</v>
+      </c>
+      <c r="P29">
+        <v>5.0873170523533497</v>
+      </c>
+    </row>
+    <row r="30" spans="12:16" x14ac:dyDescent="0.2">
+      <c r="L30">
+        <v>29</v>
+      </c>
+      <c r="N30">
+        <v>3.65700702533782</v>
+      </c>
+      <c r="P30">
+        <v>6.74183009950701</v>
+      </c>
+    </row>
+    <row r="31" spans="12:16" x14ac:dyDescent="0.2">
+      <c r="L31">
+        <v>30</v>
+      </c>
+      <c r="N31">
+        <v>3.4028955922464101</v>
+      </c>
+      <c r="P31">
+        <v>6.7318214716090399</v>
+      </c>
+    </row>
+    <row r="32" spans="12:16" x14ac:dyDescent="0.2">
+      <c r="L32">
+        <v>31</v>
+      </c>
+      <c r="N32">
+        <v>4.13416682925837</v>
+      </c>
+      <c r="P32">
+        <v>7.8654008747291702</v>
+      </c>
+    </row>
+    <row r="33" spans="12:16" x14ac:dyDescent="0.2">
+      <c r="L33">
+        <v>32</v>
+      </c>
+      <c r="N33">
+        <v>3.2913189042889601</v>
+      </c>
+      <c r="P33">
+        <v>6.7231687898990202</v>
+      </c>
+    </row>
+    <row r="34" spans="12:16" x14ac:dyDescent="0.2">
+      <c r="L34">
+        <v>33</v>
+      </c>
+      <c r="N34">
+        <v>4.2313037120415604</v>
+      </c>
+      <c r="P34">
+        <v>8.1302826372744992</v>
+      </c>
+    </row>
+    <row r="35" spans="12:16" x14ac:dyDescent="0.2">
+      <c r="L35">
+        <v>34</v>
+      </c>
+      <c r="N35">
+        <v>4.7622837058600904</v>
+      </c>
+      <c r="P35">
+        <v>7.9733267420017704</v>
+      </c>
+    </row>
+    <row r="36" spans="12:16" x14ac:dyDescent="0.2">
+      <c r="L36">
+        <v>35</v>
+      </c>
+      <c r="N36">
+        <v>4.6949651950719904</v>
+      </c>
+      <c r="P36">
+        <v>4.8927783416173796</v>
+      </c>
+    </row>
+    <row r="37" spans="12:16" x14ac:dyDescent="0.2">
+      <c r="L37">
+        <v>36</v>
+      </c>
+      <c r="N37">
+        <v>2.99394342315441</v>
+      </c>
+      <c r="P37">
+        <v>11.7113506468589</v>
+      </c>
+    </row>
+    <row r="38" spans="12:16" x14ac:dyDescent="0.2">
+      <c r="L38">
+        <v>37</v>
+      </c>
+      <c r="N38">
+        <v>20.248070107986798</v>
+      </c>
+      <c r="P38">
+        <v>5.45164808313924</v>
+      </c>
+    </row>
+    <row r="39" spans="12:16" x14ac:dyDescent="0.2">
+      <c r="L39">
+        <v>38</v>
+      </c>
+      <c r="N39">
+        <v>3.0990960301886399</v>
+      </c>
+      <c r="P39">
+        <v>17.362200144926199</v>
+      </c>
+    </row>
+    <row r="40" spans="12:16" x14ac:dyDescent="0.2">
+      <c r="L40">
+        <v>39</v>
+      </c>
+      <c r="N40">
+        <v>0</v>
+      </c>
+      <c r="P40">
+        <v>27.025540261342499</v>
+      </c>
+    </row>
+    <row r="41" spans="12:16" x14ac:dyDescent="0.2">
+      <c r="L41">
+        <v>40</v>
+      </c>
+      <c r="P41">
+        <v>7.0311660925279398</v>
+      </c>
+    </row>
+    <row r="42" spans="12:16" x14ac:dyDescent="0.2">
+      <c r="L42">
+        <v>41</v>
+      </c>
+      <c r="P42">
+        <v>10.738327985583</v>
+      </c>
+    </row>
+    <row r="43" spans="12:16" x14ac:dyDescent="0.2">
+      <c r="L43">
+        <v>42</v>
+      </c>
+      <c r="P43">
+        <v>15.154139446862301</v>
+      </c>
+    </row>
+    <row r="44" spans="12:16" x14ac:dyDescent="0.2">
+      <c r="L44">
+        <v>43</v>
+      </c>
+      <c r="P44">
+        <v>20.846061985248902</v>
+      </c>
+    </row>
+    <row r="45" spans="12:16" x14ac:dyDescent="0.2">
+      <c r="L45">
+        <v>44</v>
+      </c>
+      <c r="P45">
+        <v>6.5599269226989003</v>
+      </c>
+    </row>
+    <row r="46" spans="12:16" x14ac:dyDescent="0.2">
+      <c r="L46">
+        <v>45</v>
+      </c>
+      <c r="P46">
+        <v>8.56879885519594</v>
+      </c>
+    </row>
+    <row r="47" spans="12:16" x14ac:dyDescent="0.2">
+      <c r="L47">
+        <v>46</v>
+      </c>
+      <c r="P47">
+        <v>33.052671578930401</v>
+      </c>
+    </row>
+    <row r="48" spans="12:16" x14ac:dyDescent="0.2">
+      <c r="L48">
+        <v>47</v>
+      </c>
+      <c r="P48">
+        <v>15.705308835120899</v>
+      </c>
+    </row>
+    <row r="49" spans="12:16" x14ac:dyDescent="0.2">
+      <c r="L49">
+        <v>48</v>
+      </c>
+      <c r="P49">
+        <v>16.7104487919846</v>
+      </c>
+    </row>
+    <row r="50" spans="12:16" x14ac:dyDescent="0.2">
+      <c r="L50">
+        <v>49</v>
+      </c>
+      <c r="P50">
+        <v>8.3298490492947508</v>
+      </c>
+    </row>
+    <row r="51" spans="12:16" x14ac:dyDescent="0.2">
+      <c r="L51">
+        <v>50</v>
+      </c>
+      <c r="P51">
+        <v>11.0348613625361</v>
+      </c>
+    </row>
+    <row r="52" spans="12:16" x14ac:dyDescent="0.2">
+      <c r="L52">
+        <v>51</v>
+      </c>
+      <c r="P52">
+        <v>6.8966787768636504</v>
+      </c>
+    </row>
+    <row r="53" spans="12:16" x14ac:dyDescent="0.2">
+      <c r="L53">
+        <v>52</v>
+      </c>
+      <c r="P53">
+        <v>19.502915396033899</v>
+      </c>
+    </row>
+    <row r="54" spans="12:16" x14ac:dyDescent="0.2">
+      <c r="L54">
+        <v>53</v>
+      </c>
+      <c r="P54">
+        <v>14.1650070669178</v>
+      </c>
+    </row>
+    <row r="55" spans="12:16" x14ac:dyDescent="0.2">
+      <c r="L55">
+        <v>54</v>
+      </c>
+      <c r="P55">
+        <v>33.1687980576773</v>
+      </c>
+    </row>
+    <row r="56" spans="12:16" x14ac:dyDescent="0.2">
+      <c r="L56">
+        <v>55</v>
+      </c>
+      <c r="P56">
+        <v>15.331775550123901</v>
+      </c>
+    </row>
+    <row r="57" spans="12:16" x14ac:dyDescent="0.2">
+      <c r="L57">
+        <v>56</v>
+      </c>
+      <c r="P57">
+        <v>5.9573294309942897</v>
+      </c>
+    </row>
+    <row r="58" spans="12:16" x14ac:dyDescent="0.2">
+      <c r="L58">
+        <v>57</v>
+      </c>
+      <c r="P58">
+        <v>7.0116038167561099</v>
+      </c>
+    </row>
+    <row r="59" spans="12:16" x14ac:dyDescent="0.2">
+      <c r="L59">
+        <v>58</v>
+      </c>
+      <c r="P59">
+        <v>7.8893476973051797</v>
+      </c>
+    </row>
+    <row r="60" spans="12:16" x14ac:dyDescent="0.2">
+      <c r="L60">
+        <v>59</v>
+      </c>
+      <c r="P60">
+        <v>5.6568206824978899</v>
+      </c>
+    </row>
+    <row r="61" spans="12:16" x14ac:dyDescent="0.2">
+      <c r="L61">
+        <v>60</v>
+      </c>
+      <c r="P61">
+        <v>9.6623323950314202</v>
+      </c>
+    </row>
+    <row r="62" spans="12:16" x14ac:dyDescent="0.2">
+      <c r="L62">
+        <v>61</v>
+      </c>
+      <c r="P62">
+        <v>14.971060057251901</v>
+      </c>
+    </row>
+    <row r="63" spans="12:16" x14ac:dyDescent="0.2">
+      <c r="L63">
+        <v>62</v>
+      </c>
+      <c r="P63">
+        <v>10.5294117468283</v>
+      </c>
+    </row>
+    <row r="64" spans="12:16" x14ac:dyDescent="0.2">
+      <c r="P64">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -21695,7 +25149,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -21782,7 +25236,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -21932,10 +25386,10 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
